--- a/Meta_data/file_details.xlsx
+++ b/Meta_data/file_details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="50">
   <si>
     <t>subject</t>
   </si>
@@ -46,7 +46,115 @@
     <t>Shake_last_sensor</t>
   </si>
   <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
     <t>327</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>305</t>
   </si>
   <si>
     <t>3</t>
@@ -413,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1732,14 +1840,14 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
+      <c r="A42">
+        <v>327</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
       </c>
       <c r="D42">
         <v>22</v>
@@ -1764,14 +1872,14 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>13</v>
+      <c r="A43">
+        <v>327</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
       </c>
       <c r="D43">
         <v>22</v>
@@ -1793,6 +1901,2502 @@
       </c>
       <c r="J43">
         <v>1730</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <v>2453</v>
+      </c>
+      <c r="G44">
+        <v>2445</v>
+      </c>
+      <c r="H44">
+        <v>24150</v>
+      </c>
+      <c r="I44">
+        <v>177</v>
+      </c>
+      <c r="J44">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45">
+        <v>49</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+      <c r="F45">
+        <v>2337</v>
+      </c>
+      <c r="G45">
+        <v>2335</v>
+      </c>
+      <c r="H45">
+        <v>22850</v>
+      </c>
+      <c r="I45">
+        <v>444</v>
+      </c>
+      <c r="J45">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>1255</v>
+      </c>
+      <c r="G46">
+        <v>1250</v>
+      </c>
+      <c r="H46">
+        <v>12300</v>
+      </c>
+      <c r="I46">
+        <v>133</v>
+      </c>
+      <c r="J46">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47">
+        <v>26</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <v>1171</v>
+      </c>
+      <c r="G47">
+        <v>1170</v>
+      </c>
+      <c r="H47">
+        <v>11400</v>
+      </c>
+      <c r="I47">
+        <v>73</v>
+      </c>
+      <c r="J47">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>26</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
+      </c>
+      <c r="F48">
+        <v>1840</v>
+      </c>
+      <c r="G48">
+        <v>1840</v>
+      </c>
+      <c r="H48">
+        <v>18100</v>
+      </c>
+      <c r="I48">
+        <v>149</v>
+      </c>
+      <c r="J48">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>891</v>
+      </c>
+      <c r="G49">
+        <v>890</v>
+      </c>
+      <c r="H49">
+        <v>8750</v>
+      </c>
+      <c r="I49">
+        <v>113</v>
+      </c>
+      <c r="J49">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>34</v>
+      </c>
+      <c r="E50">
+        <v>35</v>
+      </c>
+      <c r="F50">
+        <v>2513</v>
+      </c>
+      <c r="G50">
+        <v>2510</v>
+      </c>
+      <c r="H50">
+        <v>24750</v>
+      </c>
+      <c r="I50">
+        <v>141</v>
+      </c>
+      <c r="J50">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>71</v>
+      </c>
+      <c r="E51">
+        <v>75</v>
+      </c>
+      <c r="F51">
+        <v>1437</v>
+      </c>
+      <c r="G51">
+        <v>1435</v>
+      </c>
+      <c r="H51">
+        <v>13600</v>
+      </c>
+      <c r="I51">
+        <v>69</v>
+      </c>
+      <c r="J51">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>15</v>
+      </c>
+      <c r="F52">
+        <v>1472</v>
+      </c>
+      <c r="G52">
+        <v>1470</v>
+      </c>
+      <c r="H52">
+        <v>14550</v>
+      </c>
+      <c r="I52">
+        <v>129</v>
+      </c>
+      <c r="J52">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <v>3498</v>
+      </c>
+      <c r="G53">
+        <v>3495</v>
+      </c>
+      <c r="H53">
+        <v>34750</v>
+      </c>
+      <c r="I53">
+        <v>89</v>
+      </c>
+      <c r="J53">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54">
+        <v>26</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
+      <c r="F54">
+        <v>2565</v>
+      </c>
+      <c r="G54">
+        <v>2565</v>
+      </c>
+      <c r="H54">
+        <v>25350</v>
+      </c>
+      <c r="I54">
+        <v>197</v>
+      </c>
+      <c r="J54">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55">
+        <v>18</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
+      </c>
+      <c r="F55">
+        <v>2502</v>
+      </c>
+      <c r="G55">
+        <v>2500</v>
+      </c>
+      <c r="H55">
+        <v>24800</v>
+      </c>
+      <c r="I55">
+        <v>89</v>
+      </c>
+      <c r="J55">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56">
+        <v>33</v>
+      </c>
+      <c r="E56">
+        <v>35</v>
+      </c>
+      <c r="F56">
+        <v>1554</v>
+      </c>
+      <c r="G56">
+        <v>1550</v>
+      </c>
+      <c r="H56">
+        <v>15150</v>
+      </c>
+      <c r="I56">
+        <v>305</v>
+      </c>
+      <c r="J56">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="F57">
+        <v>1981</v>
+      </c>
+      <c r="G57">
+        <v>1980</v>
+      </c>
+      <c r="H57">
+        <v>19500</v>
+      </c>
+      <c r="I57">
+        <v>209</v>
+      </c>
+      <c r="J57">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>31</v>
+      </c>
+      <c r="E58">
+        <v>35</v>
+      </c>
+      <c r="F58">
+        <v>1820</v>
+      </c>
+      <c r="G58">
+        <v>1820</v>
+      </c>
+      <c r="H58">
+        <v>17850</v>
+      </c>
+      <c r="I58">
+        <v>89</v>
+      </c>
+      <c r="J58">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59">
+        <v>29</v>
+      </c>
+      <c r="E59">
+        <v>30</v>
+      </c>
+      <c r="F59">
+        <v>1601</v>
+      </c>
+      <c r="G59">
+        <v>1600</v>
+      </c>
+      <c r="H59">
+        <v>15700</v>
+      </c>
+      <c r="I59">
+        <v>61</v>
+      </c>
+      <c r="J59">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60">
+        <v>26</v>
+      </c>
+      <c r="E60">
+        <v>30</v>
+      </c>
+      <c r="F60">
+        <v>1260</v>
+      </c>
+      <c r="G60">
+        <v>1260</v>
+      </c>
+      <c r="H60">
+        <v>12300</v>
+      </c>
+      <c r="I60">
+        <v>121</v>
+      </c>
+      <c r="J60">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61">
+        <v>101</v>
+      </c>
+      <c r="E61">
+        <v>105</v>
+      </c>
+      <c r="F61">
+        <v>3314</v>
+      </c>
+      <c r="G61">
+        <v>3310</v>
+      </c>
+      <c r="H61">
+        <v>32050</v>
+      </c>
+      <c r="I61">
+        <v>448</v>
+      </c>
+      <c r="J61">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62">
+        <v>28</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
+      </c>
+      <c r="F62">
+        <v>1671</v>
+      </c>
+      <c r="G62">
+        <v>1670</v>
+      </c>
+      <c r="H62">
+        <v>16400</v>
+      </c>
+      <c r="I62">
+        <v>201</v>
+      </c>
+      <c r="J62">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63">
+        <v>30</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
+      </c>
+      <c r="F63">
+        <v>1359</v>
+      </c>
+      <c r="G63">
+        <v>1355</v>
+      </c>
+      <c r="H63">
+        <v>13250</v>
+      </c>
+      <c r="I63">
+        <v>165</v>
+      </c>
+      <c r="J63">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64">
+        <v>22</v>
+      </c>
+      <c r="E64">
+        <v>25</v>
+      </c>
+      <c r="F64">
+        <v>1756</v>
+      </c>
+      <c r="G64">
+        <v>1755</v>
+      </c>
+      <c r="H64">
+        <v>17300</v>
+      </c>
+      <c r="I64">
+        <v>109</v>
+      </c>
+      <c r="J64">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65">
+        <v>71</v>
+      </c>
+      <c r="E65">
+        <v>75</v>
+      </c>
+      <c r="F65">
+        <v>1437</v>
+      </c>
+      <c r="G65">
+        <v>1435</v>
+      </c>
+      <c r="H65">
+        <v>13600</v>
+      </c>
+      <c r="I65">
+        <v>53</v>
+      </c>
+      <c r="J65">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66">
+        <v>34</v>
+      </c>
+      <c r="E66">
+        <v>35</v>
+      </c>
+      <c r="F66">
+        <v>2513</v>
+      </c>
+      <c r="G66">
+        <v>2510</v>
+      </c>
+      <c r="H66">
+        <v>24750</v>
+      </c>
+      <c r="I66">
+        <v>181</v>
+      </c>
+      <c r="J66">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>891</v>
+      </c>
+      <c r="G67">
+        <v>890</v>
+      </c>
+      <c r="H67">
+        <v>8750</v>
+      </c>
+      <c r="I67">
+        <v>61</v>
+      </c>
+      <c r="J67">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68">
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>15</v>
+      </c>
+      <c r="F68">
+        <v>1472</v>
+      </c>
+      <c r="G68">
+        <v>1470</v>
+      </c>
+      <c r="H68">
+        <v>14550</v>
+      </c>
+      <c r="I68">
+        <v>93</v>
+      </c>
+      <c r="J68">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+      <c r="F69">
+        <v>3498</v>
+      </c>
+      <c r="G69">
+        <v>3495</v>
+      </c>
+      <c r="H69">
+        <v>34750</v>
+      </c>
+      <c r="I69">
+        <v>85</v>
+      </c>
+      <c r="J69">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70">
+        <v>26</v>
+      </c>
+      <c r="E70">
+        <v>30</v>
+      </c>
+      <c r="F70">
+        <v>1840</v>
+      </c>
+      <c r="G70">
+        <v>1840</v>
+      </c>
+      <c r="H70">
+        <v>18100</v>
+      </c>
+      <c r="I70">
+        <v>125</v>
+      </c>
+      <c r="J70">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71">
+        <v>29</v>
+      </c>
+      <c r="E71">
+        <v>30</v>
+      </c>
+      <c r="F71">
+        <v>2453</v>
+      </c>
+      <c r="G71">
+        <v>2445</v>
+      </c>
+      <c r="H71">
+        <v>24150</v>
+      </c>
+      <c r="I71">
+        <v>173</v>
+      </c>
+      <c r="J71">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72">
+        <v>49</v>
+      </c>
+      <c r="E72">
+        <v>50</v>
+      </c>
+      <c r="F72">
+        <v>2337</v>
+      </c>
+      <c r="G72">
+        <v>2335</v>
+      </c>
+      <c r="H72">
+        <v>22850</v>
+      </c>
+      <c r="I72">
+        <v>452</v>
+      </c>
+      <c r="J72">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>20</v>
+      </c>
+      <c r="F73">
+        <v>1255</v>
+      </c>
+      <c r="G73">
+        <v>1250</v>
+      </c>
+      <c r="H73">
+        <v>12300</v>
+      </c>
+      <c r="I73">
+        <v>117</v>
+      </c>
+      <c r="J73">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74">
+        <v>26</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
+      </c>
+      <c r="F74">
+        <v>1171</v>
+      </c>
+      <c r="G74">
+        <v>1170</v>
+      </c>
+      <c r="H74">
+        <v>11400</v>
+      </c>
+      <c r="I74">
+        <v>93</v>
+      </c>
+      <c r="J74">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75">
+        <v>30</v>
+      </c>
+      <c r="E75">
+        <v>30</v>
+      </c>
+      <c r="F75">
+        <v>1359</v>
+      </c>
+      <c r="G75">
+        <v>1355</v>
+      </c>
+      <c r="H75">
+        <v>13250</v>
+      </c>
+      <c r="I75">
+        <v>193</v>
+      </c>
+      <c r="J75">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76">
+        <v>29</v>
+      </c>
+      <c r="E76">
+        <v>30</v>
+      </c>
+      <c r="F76">
+        <v>1601</v>
+      </c>
+      <c r="G76">
+        <v>1600</v>
+      </c>
+      <c r="H76">
+        <v>15700</v>
+      </c>
+      <c r="I76">
+        <v>89</v>
+      </c>
+      <c r="J76">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77">
+        <v>26</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
+      </c>
+      <c r="F77">
+        <v>1260</v>
+      </c>
+      <c r="G77">
+        <v>1260</v>
+      </c>
+      <c r="H77">
+        <v>12300</v>
+      </c>
+      <c r="I77">
+        <v>93</v>
+      </c>
+      <c r="J77">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78">
+        <v>101</v>
+      </c>
+      <c r="E78">
+        <v>105</v>
+      </c>
+      <c r="F78">
+        <v>3314</v>
+      </c>
+      <c r="G78">
+        <v>3310</v>
+      </c>
+      <c r="H78">
+        <v>32050</v>
+      </c>
+      <c r="I78">
+        <v>452</v>
+      </c>
+      <c r="J78">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79">
+        <v>28</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
+      </c>
+      <c r="F79">
+        <v>1671</v>
+      </c>
+      <c r="G79">
+        <v>1670</v>
+      </c>
+      <c r="H79">
+        <v>16400</v>
+      </c>
+      <c r="I79">
+        <v>173</v>
+      </c>
+      <c r="J79">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80">
+        <v>22</v>
+      </c>
+      <c r="E80">
+        <v>25</v>
+      </c>
+      <c r="F80">
+        <v>1756</v>
+      </c>
+      <c r="G80">
+        <v>1755</v>
+      </c>
+      <c r="H80">
+        <v>17300</v>
+      </c>
+      <c r="I80">
+        <v>109</v>
+      </c>
+      <c r="J80">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81">
+        <v>26</v>
+      </c>
+      <c r="E81">
+        <v>30</v>
+      </c>
+      <c r="F81">
+        <v>2565</v>
+      </c>
+      <c r="G81">
+        <v>2565</v>
+      </c>
+      <c r="H81">
+        <v>25350</v>
+      </c>
+      <c r="I81">
+        <v>193</v>
+      </c>
+      <c r="J81">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82">
+        <v>18</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <v>2502</v>
+      </c>
+      <c r="G82">
+        <v>2500</v>
+      </c>
+      <c r="H82">
+        <v>24800</v>
+      </c>
+      <c r="I82">
+        <v>113</v>
+      </c>
+      <c r="J82">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83">
+        <v>33</v>
+      </c>
+      <c r="E83">
+        <v>35</v>
+      </c>
+      <c r="F83">
+        <v>1554</v>
+      </c>
+      <c r="G83">
+        <v>1550</v>
+      </c>
+      <c r="H83">
+        <v>15150</v>
+      </c>
+      <c r="I83">
+        <v>257</v>
+      </c>
+      <c r="J83">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84">
+        <v>25</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
+      </c>
+      <c r="F84">
+        <v>1981</v>
+      </c>
+      <c r="G84">
+        <v>1980</v>
+      </c>
+      <c r="H84">
+        <v>19500</v>
+      </c>
+      <c r="I84">
+        <v>229</v>
+      </c>
+      <c r="J84">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85">
+        <v>31</v>
+      </c>
+      <c r="E85">
+        <v>35</v>
+      </c>
+      <c r="F85">
+        <v>1820</v>
+      </c>
+      <c r="G85">
+        <v>1820</v>
+      </c>
+      <c r="H85">
+        <v>17850</v>
+      </c>
+      <c r="I85">
+        <v>45</v>
+      </c>
+      <c r="J85">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86">
+        <v>62</v>
+      </c>
+      <c r="E86">
+        <v>65</v>
+      </c>
+      <c r="F86">
+        <v>2427</v>
+      </c>
+      <c r="G86">
+        <v>2425</v>
+      </c>
+      <c r="H86">
+        <v>23600</v>
+      </c>
+      <c r="I86">
+        <v>388</v>
+      </c>
+      <c r="J86">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87">
+        <v>28</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
+      </c>
+      <c r="F87">
+        <v>2694</v>
+      </c>
+      <c r="G87">
+        <v>2690</v>
+      </c>
+      <c r="H87">
+        <v>26600</v>
+      </c>
+      <c r="I87">
+        <v>145</v>
+      </c>
+      <c r="J87">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88">
+        <v>30</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
+      </c>
+      <c r="F88">
+        <v>3109</v>
+      </c>
+      <c r="G88">
+        <v>3105</v>
+      </c>
+      <c r="H88">
+        <v>30750</v>
+      </c>
+      <c r="I88">
+        <v>169</v>
+      </c>
+      <c r="J88">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89">
+        <v>31</v>
+      </c>
+      <c r="E89">
+        <v>35</v>
+      </c>
+      <c r="F89">
+        <v>2081</v>
+      </c>
+      <c r="G89">
+        <v>2080</v>
+      </c>
+      <c r="H89">
+        <v>20450</v>
+      </c>
+      <c r="I89">
+        <v>169</v>
+      </c>
+      <c r="J89">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90">
+        <v>31</v>
+      </c>
+      <c r="E90">
+        <v>35</v>
+      </c>
+      <c r="F90">
+        <v>2867</v>
+      </c>
+      <c r="G90">
+        <v>2865</v>
+      </c>
+      <c r="H90">
+        <v>28300</v>
+      </c>
+      <c r="I90">
+        <v>233</v>
+      </c>
+      <c r="J90">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91">
+        <v>47</v>
+      </c>
+      <c r="E91">
+        <v>50</v>
+      </c>
+      <c r="F91">
+        <v>2826</v>
+      </c>
+      <c r="G91">
+        <v>2825</v>
+      </c>
+      <c r="H91">
+        <v>27750</v>
+      </c>
+      <c r="I91">
+        <v>368</v>
+      </c>
+      <c r="J91">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92">
+        <v>22</v>
+      </c>
+      <c r="E92">
+        <v>25</v>
+      </c>
+      <c r="F92">
+        <v>744</v>
+      </c>
+      <c r="G92">
+        <v>740</v>
+      </c>
+      <c r="H92">
+        <v>7150</v>
+      </c>
+      <c r="I92">
+        <v>1398</v>
+      </c>
+      <c r="J92">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93">
+        <v>39</v>
+      </c>
+      <c r="E93">
+        <v>40</v>
+      </c>
+      <c r="F93">
+        <v>2790</v>
+      </c>
+      <c r="G93">
+        <v>2790</v>
+      </c>
+      <c r="H93">
+        <v>27500</v>
+      </c>
+      <c r="I93">
+        <v>293</v>
+      </c>
+      <c r="J93">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94">
+        <v>32</v>
+      </c>
+      <c r="E94">
+        <v>35</v>
+      </c>
+      <c r="F94">
+        <v>1335</v>
+      </c>
+      <c r="G94">
+        <v>1335</v>
+      </c>
+      <c r="H94">
+        <v>13000</v>
+      </c>
+      <c r="I94">
+        <v>101</v>
+      </c>
+      <c r="J94">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95">
+        <v>26</v>
+      </c>
+      <c r="E95">
+        <v>30</v>
+      </c>
+      <c r="F95">
+        <v>1918</v>
+      </c>
+      <c r="G95">
+        <v>1915</v>
+      </c>
+      <c r="H95">
+        <v>18850</v>
+      </c>
+      <c r="I95">
+        <v>209</v>
+      </c>
+      <c r="J95">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96">
+        <v>48</v>
+      </c>
+      <c r="E96">
+        <v>50</v>
+      </c>
+      <c r="F96">
+        <v>1866</v>
+      </c>
+      <c r="G96">
+        <v>1865</v>
+      </c>
+      <c r="H96">
+        <v>18150</v>
+      </c>
+      <c r="I96">
+        <v>269</v>
+      </c>
+      <c r="J96">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97">
+        <v>54</v>
+      </c>
+      <c r="E97">
+        <v>55</v>
+      </c>
+      <c r="F97">
+        <v>2930</v>
+      </c>
+      <c r="G97">
+        <v>2930</v>
+      </c>
+      <c r="H97">
+        <v>28750</v>
+      </c>
+      <c r="I97">
+        <v>293</v>
+      </c>
+      <c r="J97">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98">
+        <v>1500</v>
+      </c>
+      <c r="E98">
+        <v>30</v>
+      </c>
+      <c r="F98">
+        <v>1432</v>
+      </c>
+      <c r="G98">
+        <v>1430</v>
+      </c>
+      <c r="H98">
+        <v>14000</v>
+      </c>
+      <c r="I98">
+        <v>101</v>
+      </c>
+      <c r="J98">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99">
+        <v>34</v>
+      </c>
+      <c r="E99">
+        <v>35</v>
+      </c>
+      <c r="F99">
+        <v>1808</v>
+      </c>
+      <c r="G99">
+        <v>1805</v>
+      </c>
+      <c r="H99">
+        <v>17700</v>
+      </c>
+      <c r="I99">
+        <v>297</v>
+      </c>
+      <c r="J99">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100">
+        <v>42</v>
+      </c>
+      <c r="E100">
+        <v>45</v>
+      </c>
+      <c r="F100">
+        <v>3160</v>
+      </c>
+      <c r="G100">
+        <v>3160</v>
+      </c>
+      <c r="H100">
+        <v>31150</v>
+      </c>
+      <c r="I100">
+        <v>324</v>
+      </c>
+      <c r="J100">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101">
+        <v>95</v>
+      </c>
+      <c r="E101">
+        <v>95</v>
+      </c>
+      <c r="F101">
+        <v>3176</v>
+      </c>
+      <c r="G101">
+        <v>3175</v>
+      </c>
+      <c r="H101">
+        <v>30800</v>
+      </c>
+      <c r="I101">
+        <v>185</v>
+      </c>
+      <c r="J101">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102">
+        <v>54</v>
+      </c>
+      <c r="E102">
+        <v>55</v>
+      </c>
+      <c r="F102">
+        <v>2921</v>
+      </c>
+      <c r="G102">
+        <v>2920</v>
+      </c>
+      <c r="H102">
+        <v>28650</v>
+      </c>
+      <c r="I102">
+        <v>372</v>
+      </c>
+      <c r="J102">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103">
+        <v>31</v>
+      </c>
+      <c r="E103">
+        <v>35</v>
+      </c>
+      <c r="F103">
+        <v>2081</v>
+      </c>
+      <c r="G103">
+        <v>2080</v>
+      </c>
+      <c r="H103">
+        <v>20450</v>
+      </c>
+      <c r="I103">
+        <v>193</v>
+      </c>
+      <c r="J103">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104">
+        <v>31</v>
+      </c>
+      <c r="E104">
+        <v>35</v>
+      </c>
+      <c r="F104">
+        <v>2867</v>
+      </c>
+      <c r="G104">
+        <v>2865</v>
+      </c>
+      <c r="H104">
+        <v>28300</v>
+      </c>
+      <c r="I104">
+        <v>197</v>
+      </c>
+      <c r="J104">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105">
+        <v>22</v>
+      </c>
+      <c r="E105">
+        <v>25</v>
+      </c>
+      <c r="F105">
+        <v>744</v>
+      </c>
+      <c r="G105">
+        <v>740</v>
+      </c>
+      <c r="H105">
+        <v>7150</v>
+      </c>
+      <c r="I105">
+        <v>1386</v>
+      </c>
+      <c r="J105">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106">
+        <v>39</v>
+      </c>
+      <c r="E106">
+        <v>40</v>
+      </c>
+      <c r="F106">
+        <v>2790</v>
+      </c>
+      <c r="G106">
+        <v>2790</v>
+      </c>
+      <c r="H106">
+        <v>27500</v>
+      </c>
+      <c r="I106">
+        <v>301</v>
+      </c>
+      <c r="J106">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107">
+        <v>47</v>
+      </c>
+      <c r="E107">
+        <v>50</v>
+      </c>
+      <c r="F107">
+        <v>2826</v>
+      </c>
+      <c r="G107">
+        <v>2825</v>
+      </c>
+      <c r="H107">
+        <v>27750</v>
+      </c>
+      <c r="I107">
+        <v>392</v>
+      </c>
+      <c r="J107">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108">
+        <v>62</v>
+      </c>
+      <c r="E108">
+        <v>65</v>
+      </c>
+      <c r="F108">
+        <v>2427</v>
+      </c>
+      <c r="G108">
+        <v>2425</v>
+      </c>
+      <c r="H108">
+        <v>23600</v>
+      </c>
+      <c r="I108">
+        <v>400</v>
+      </c>
+      <c r="J108">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109">
+        <v>28</v>
+      </c>
+      <c r="E109">
+        <v>30</v>
+      </c>
+      <c r="F109">
+        <v>2694</v>
+      </c>
+      <c r="G109">
+        <v>2690</v>
+      </c>
+      <c r="H109">
+        <v>26600</v>
+      </c>
+      <c r="I109">
+        <v>181</v>
+      </c>
+      <c r="J109">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110">
+        <v>30</v>
+      </c>
+      <c r="E110">
+        <v>30</v>
+      </c>
+      <c r="F110">
+        <v>3109</v>
+      </c>
+      <c r="G110">
+        <v>3105</v>
+      </c>
+      <c r="H110">
+        <v>30750</v>
+      </c>
+      <c r="I110">
+        <v>193</v>
+      </c>
+      <c r="J110">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111">
+        <v>42</v>
+      </c>
+      <c r="E111">
+        <v>45</v>
+      </c>
+      <c r="F111">
+        <v>3160</v>
+      </c>
+      <c r="G111">
+        <v>3160</v>
+      </c>
+      <c r="H111">
+        <v>31150</v>
+      </c>
+      <c r="I111">
+        <v>364</v>
+      </c>
+      <c r="J111">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112">
+        <v>95</v>
+      </c>
+      <c r="E112">
+        <v>95</v>
+      </c>
+      <c r="F112">
+        <v>3176</v>
+      </c>
+      <c r="G112">
+        <v>3175</v>
+      </c>
+      <c r="H112">
+        <v>30800</v>
+      </c>
+      <c r="I112">
+        <v>225</v>
+      </c>
+      <c r="J112">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113">
+        <v>54</v>
+      </c>
+      <c r="E113">
+        <v>55</v>
+      </c>
+      <c r="F113">
+        <v>2921</v>
+      </c>
+      <c r="G113">
+        <v>2920</v>
+      </c>
+      <c r="H113">
+        <v>28650</v>
+      </c>
+      <c r="I113">
+        <v>368</v>
+      </c>
+      <c r="J113">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114">
+        <v>32</v>
+      </c>
+      <c r="E114">
+        <v>35</v>
+      </c>
+      <c r="F114">
+        <v>1335</v>
+      </c>
+      <c r="G114">
+        <v>1335</v>
+      </c>
+      <c r="H114">
+        <v>13000</v>
+      </c>
+      <c r="I114">
+        <v>41</v>
+      </c>
+      <c r="J114">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115">
+        <v>26</v>
+      </c>
+      <c r="E115">
+        <v>30</v>
+      </c>
+      <c r="F115">
+        <v>1918</v>
+      </c>
+      <c r="G115">
+        <v>1915</v>
+      </c>
+      <c r="H115">
+        <v>18850</v>
+      </c>
+      <c r="I115">
+        <v>153</v>
+      </c>
+      <c r="J115">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116">
+        <v>54</v>
+      </c>
+      <c r="E116">
+        <v>55</v>
+      </c>
+      <c r="F116">
+        <v>2930</v>
+      </c>
+      <c r="G116">
+        <v>2930</v>
+      </c>
+      <c r="H116">
+        <v>28750</v>
+      </c>
+      <c r="I116">
+        <v>289</v>
+      </c>
+      <c r="J116">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117">
+        <v>1500</v>
+      </c>
+      <c r="E117">
+        <v>30</v>
+      </c>
+      <c r="F117">
+        <v>1432</v>
+      </c>
+      <c r="G117">
+        <v>1430</v>
+      </c>
+      <c r="H117">
+        <v>14000</v>
+      </c>
+      <c r="I117">
+        <v>45</v>
+      </c>
+      <c r="J117">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>42</v>
+      </c>
+      <c r="B118" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118">
+        <v>34</v>
+      </c>
+      <c r="E118">
+        <v>35</v>
+      </c>
+      <c r="F118">
+        <v>1808</v>
+      </c>
+      <c r="G118">
+        <v>1805</v>
+      </c>
+      <c r="H118">
+        <v>17700</v>
+      </c>
+      <c r="I118">
+        <v>289</v>
+      </c>
+      <c r="J118">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119">
+        <v>48</v>
+      </c>
+      <c r="E119">
+        <v>50</v>
+      </c>
+      <c r="F119">
+        <v>1866</v>
+      </c>
+      <c r="G119">
+        <v>1865</v>
+      </c>
+      <c r="H119">
+        <v>18150</v>
+      </c>
+      <c r="I119">
+        <v>233</v>
+      </c>
+      <c r="J119">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120">
+        <v>25</v>
+      </c>
+      <c r="E120">
+        <v>30</v>
+      </c>
+      <c r="F120">
+        <v>2191</v>
+      </c>
+      <c r="G120">
+        <v>2190</v>
+      </c>
+      <c r="H120">
+        <v>21600</v>
+      </c>
+      <c r="I120">
+        <v>137</v>
+      </c>
+      <c r="J120">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121">
+        <v>25</v>
+      </c>
+      <c r="E121">
+        <v>30</v>
+      </c>
+      <c r="F121">
+        <v>2191</v>
+      </c>
+      <c r="G121">
+        <v>2190</v>
+      </c>
+      <c r="H121">
+        <v>21600</v>
+      </c>
+      <c r="I121">
+        <v>141</v>
+      </c>
+      <c r="J121">
+        <v>1709</v>
       </c>
     </row>
   </sheetData>
